--- a/activity/LandSoil/LandSoil.xlsx
+++ b/activity/LandSoil/LandSoil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\LandSoil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C9B3E-5382-4ABB-8E66-CB3C6628B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F281D84-05A9-4EA2-A6C2-8A0412537D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{C4CCF2BE-96D6-4739-B16C-166274974EA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="133">
   <si>
     <t>Montaña</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>Categorías MOT e incompatibilidad por relieve en mapa de suelos de Cundinamarca</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -702,9 +705,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -712,6 +712,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2374,10 +2377,10 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2418,14 +2421,24 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H21" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," |")</f>
-        <v>|  |  |  |  |</v>
+        <v>| --- | --- | --- | --- |</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.45">
@@ -2792,5 +2805,6 @@
     <sortCondition ref="D5:D21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>